--- a/AcmeperformerFraamWork/Data/Output/AcmeReport.xlsx
+++ b/AcmeperformerFraamWork/Data/Output/AcmeReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mai\UiPath\Acme-Uipath-Reframework\AcmeperformerFraamWork\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93C3C960-67DD-44FC-9001-364C68BF2C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22EC105C-68E3-4770-A037-39290988DE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B08FE13-5093-4514-8883-2291B663E725}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{721EE1AE-9DB4-4321-8AD2-D5E340DBDED8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CA104A-2965-4FA8-9624-3624B9245618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBD03FD-AFD1-4D6D-AE8C-D32E915B1EEC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
